--- a/kröfulisti01.xlsx
+++ b/kröfulisti01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gudmundur\Dropbox\Tölvunarfræði\Verk1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gudmundur\Dropbox\Tölvunarfræði\Verk1\hópverk\verklegtnamskeid1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA700024-406B-42CE-9B71-61AD780DEF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093709BF-8C1C-40E4-9527-57034D4752B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{E4B1D200-2CAD-450F-B296-0F19F81F2DF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>Number</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Það þarf að vera hægt að endurtaka skráningu vinnuferðar fyrir sama áfangastað og sama tíma yfir á marga daga</t>
   </si>
   <si>
-    <t>Það þarf að vera hægt að skrá áfangastað  með landi, flugvelli, flugtíma og fjarlægð frá Íslandi ásmt nafni tengiliðs og neyðarsímanúmeri</t>
-  </si>
-  <si>
     <t>Það þarf að vera hægt að endurtaka skráningu vinnuferðar sem viðburð sem gerist með reglulegu millibili</t>
   </si>
   <si>
@@ -128,6 +125,63 @@
   </si>
   <si>
     <t>Það þarf að vera hægt að sýna allar vinnuferðir starfsmanns í ákveðinni viku</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að skrá flugvélar með nafni, tegund, framleiðanda og fjölda farþegasæta</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að skrá, hvaða einu flugvélategund flugmaður má fljúga, í skráningu flugmanns</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir alla flugmenn sem hafa leyfi á ákveðna flugvélategund</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir alla flugmenn og hvaða flugvélategundir þeir mega fljúga</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að skrá flugvél á vinnuferð áður en starfsmenn eru skráðir</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að koma í veg fyrir að flugmaður sé skráður í vinnuferð með flugvél sem hann hefur ekki leyfi á</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að skrá tvö flugnúmer á vinnuferð þar sem fyrrihluti númeranna samanstendur af einkenni áfangastaðar og seinni hluti eftir fjölda ferða þess dags þar sem talan skal vera næsta slétta tala ef farið er frá Íslandi en næsta oddatala ef farið er til íslands</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að koma í veg fyrir að brottfaratími sé sá sami hjá fleirri en einni vinnuferð frá Íslandi</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir alla vinnuferðir með báðum flugnúmerum</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir alla vinnuferðir með fjölda lausra sæta og seldra selda</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá stöðu vinnuferðar miðað dagsetningu og tíma núna. Mögulegar stöður:  lokið, lent ytra, í loftinu, ekki hafin</t>
+  </si>
+  <si>
+    <t>Það þarf að að hægt að breyta nafni á tengiliði og/eða neyðarsímanúmer sem skráður er fyrir áfangastað</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að skrá áfangastað með landi, flugvelli, einkennisnúmer flugvallar, flugtíma og fjarlægð frá Íslandi ásamt nafni tengiliðs og neyðarsímanúmeri</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá dagsetningu og tíma þegar flugvél er aftur laus ef hún er í notkun</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá nafn áfangastaðar flugvélar ef hún er í notkun</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá flugnúmer flugferðar ef hún er í notkun</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir stöðu allra flugvélanna miðað við ákveðna dagsetningu og tíma ásamt nafni, týpu og sætafjölda</t>
+  </si>
+  <si>
+    <t>allir</t>
   </si>
 </sst>
 </file>
@@ -267,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,18 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,431 +713,585 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="14">
+        <v>17</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="14">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="14">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="18">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="18">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="18">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6">
         <v>24</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="C26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="6">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="6">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="E28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="18">
-        <v>17</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
-        <v>18</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="C29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="6">
         <v>28</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="18">
-        <v>19</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="C30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
         <v>29</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
-        <v>20</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="C31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="18">
-        <v>21</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="C32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="6">
         <v>31</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+      <c r="C33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B34" s="6">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="6">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
+      <c r="E35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="6">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="6">
+        <v>35</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="6">
+        <v>36</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="6">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="6">
+        <v>38</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kröfulisti01.xlsx
+++ b/kröfulisti01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gudmundur\Dropbox\Tölvunarfræði\Verk1\hópverk\verklegtnamskeid1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runar\Desktop\verklegtnamskeid1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093709BF-8C1C-40E4-9527-57034D4752B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D8E24-1F70-4917-A047-F57BD69D61FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{E4B1D200-2CAD-450F-B296-0F19F81F2DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4B1D200-2CAD-450F-B296-0F19F81F2DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="kröfur" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>Number</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Það þarf að vera hægt að sjá lista yfir allar vinnuferðir</t>
   </si>
   <si>
-    <t>Það þarf að vera hægt að koma í veg fyrir að starfsmaður sé skráður í fleirri en eina vinnuferð á sama degi</t>
-  </si>
-  <si>
     <t>Skipuleggjari</t>
   </si>
   <si>
@@ -139,33 +136,12 @@
     <t>Það þarf að vera hægt að sjá lista yfir alla flugmenn sem hafa leyfi á ákveðna flugvélategund</t>
   </si>
   <si>
-    <t>Það þarf að vera hægt að sjá lista yfir alla flugmenn og hvaða flugvélategundir þeir mega fljúga</t>
-  </si>
-  <si>
     <t>Það þarf að vera hægt að skrá flugvél á vinnuferð áður en starfsmenn eru skráðir</t>
   </si>
   <si>
-    <t>Það þarf að vera hægt að koma í veg fyrir að flugmaður sé skráður í vinnuferð með flugvél sem hann hefur ekki leyfi á</t>
-  </si>
-  <si>
     <t>Það þarf að vera hægt að skrá tvö flugnúmer á vinnuferð þar sem fyrrihluti númeranna samanstendur af einkenni áfangastaðar og seinni hluti eftir fjölda ferða þess dags þar sem talan skal vera næsta slétta tala ef farið er frá Íslandi en næsta oddatala ef farið er til íslands</t>
   </si>
   <si>
-    <t>Það þarf að vera hægt að koma í veg fyrir að brottfaratími sé sá sami hjá fleirri en einni vinnuferð frá Íslandi</t>
-  </si>
-  <si>
-    <t>Það þarf að vera hægt að sjá lista yfir alla vinnuferðir með báðum flugnúmerum</t>
-  </si>
-  <si>
-    <t>Það þarf að vera hægt að sjá lista yfir alla vinnuferðir með fjölda lausra sæta og seldra selda</t>
-  </si>
-  <si>
-    <t>Það þarf að vera hægt að sjá stöðu vinnuferðar miðað dagsetningu og tíma núna. Mögulegar stöður:  lokið, lent ytra, í loftinu, ekki hafin</t>
-  </si>
-  <si>
-    <t>Það þarf að að hægt að breyta nafni á tengiliði og/eða neyðarsímanúmer sem skráður er fyrir áfangastað</t>
-  </si>
-  <si>
     <t>Það þarf að vera hægt að skrá áfangastað með landi, flugvelli, einkennisnúmer flugvallar, flugtíma og fjarlægð frá Íslandi ásamt nafni tengiliðs og neyðarsímanúmeri</t>
   </si>
   <si>
@@ -182,13 +158,40 @@
   </si>
   <si>
     <t>allir</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að koma í veg fyrir að starfsmaður sé skráður í fleiri en eina vinnuferð á sama degi</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá stöðu vinnuferðar miðað við núverandi dagsetningu og tíma. Mögulegar stöður:  lokið, lent ytra, í loftinu, ekki hafin</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir alla vinnuferðir með fjölda lausra- og seldra sæta</t>
+  </si>
+  <si>
+    <t>Það þarf að að hægt að breyta nafni á tengiliði og/eða neyðarsímanúmeri sem skráð er fyrir áfangastað</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir alla vinnuferðir með flugnúmerum beggja flugferðanna</t>
+  </si>
+  <si>
+    <t>Það þarf að vera hægt að sjá lista yfir alla flugmenn og hvaða flugvélategundum þeir mega fljúga</t>
+  </si>
+  <si>
+    <t>Sami brottfarartíminn getur ekki verið skráður á tvær flugferðir sem fara frá Íslandi samdægurs</t>
+  </si>
+  <si>
+    <t>Ekki er hægt að skrá flugmann í vinnuferð nema hann sé með leyfi til að fljúga flugvélinni</t>
+  </si>
+  <si>
+    <t>Functional Requirements:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +206,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -321,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,6 +396,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,22 +727,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F40"/>
+  <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="59.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -729,569 +759,578 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="14">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>17</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>18</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>26</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="14">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="14">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="14">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="14">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
-        <v>16</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
-        <v>17</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
-        <v>18</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
         <v>32</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="6">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
-        <v>24</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="6">
-        <v>25</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="6">
-        <v>27</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
-        <v>28</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="6">
-        <v>29</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
-        <v>30</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B33" s="6">
-        <v>31</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
-        <v>32</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="6">
-        <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
         <v>34</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B37" s="6">
+      <c r="C37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
+      <c r="C38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B39" s="6">
+      <c r="C39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
         <v>37</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
+      <c r="C40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
         <v>38</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="11"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1307,14 +1346,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
